--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTaiNguyen.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTaiNguyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4961B95-47C2-4F3F-8E9C-15AB7574F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EB1D8-566A-4106-95D9-8618DDDA07B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="1725" yWindow="5100" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Phân loại</t>
   </si>
@@ -54,10 +54,7 @@
     <t>Tên nhóm</t>
   </si>
   <si>
-    <t>Nhà 1 tầng, tường 111</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 200</t>
+    <t>Giá Thuế Tài Nguyên Khoảng sản kim loại</t>
   </si>
 </sst>
 </file>
@@ -436,13 +433,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
@@ -507,7 +504,7 @@
         <v>231130224114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -524,7 +521,7 @@
         <v>231130224114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -541,7 +538,7 @@
         <v>231130224114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTaiNguyen.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTaiNguyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EB1D8-566A-4106-95D9-8618DDDA07B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFAAFF-C0D3-4B9C-91F9-7ED863A7C110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="5100" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Mã nhóm</t>
-  </si>
-  <si>
-    <t>Nhà có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà không có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà khác</t>
-  </si>
-  <si>
-    <t>Tên nhóm</t>
-  </si>
-  <si>
-    <t>Giá Thuế Tài Nguyên Khoảng sản kim loại</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Mã nhóm tài nguyên cấp 1</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên cấp 2</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên cấp 3</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên cấp 4</t>
+  </si>
+  <si>
+    <t>Mã nhóm tài nguyên cấp 5</t>
+  </si>
+  <si>
+    <t>Tên nhóm tài nguyên</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Giá tính thuê tài nguyên</t>
+  </si>
+  <si>
+    <t>Tấn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,12 +66,6 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -104,18 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,143 +417,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="H2">
+        <v>5000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
